--- a/Myexpenses/table.xlsx
+++ b/Myexpenses/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\Myexpenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4BB228-6854-455E-BDFA-F3A814F8E268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D1CEA8-EEC3-4E26-AA1E-12A4CC1E0854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26688" yWindow="2928" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>pk</t>
   </si>
@@ -274,13 +274,34 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -289,34 +310,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,278 +640,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B6434-A4D7-4BAC-9CEC-2A04A709C66A}">
   <dimension ref="B2:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="L2" s="1" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="O10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="6" t="s">
+      <c r="P12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="O14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L12" s="3" t="s">
+      <c r="M16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="O14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -934,310 +930,311 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7701AA24-EFAD-450B-A475-75336F589FB1}">
   <dimension ref="B2:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="L2" s="1" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>10.5</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="8">
         <v>44847</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <v>10</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <v>33000</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="8">
         <v>44847</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>10.5</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="8">
         <v>44878</v>
       </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="1">
         <v>2</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4">
         <v>2</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="1">
         <v>10.5</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9" t="s">
+      <c r="M10" s="10"/>
+      <c r="O10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="9"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L12" s="3">
+      <c r="L12" s="1">
         <v>2</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="1">
         <v>2</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="O14" s="10" t="s">
+      <c r="M14" s="9"/>
+      <c r="O14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="10"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Myexpenses/table.xlsx
+++ b/Myexpenses/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\Myexpenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D1CEA8-EEC3-4E26-AA1E-12A4CC1E0854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD2B558-3FF1-446E-8A75-344BC125410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="B2:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Myexpenses/table.xlsx
+++ b/Myexpenses/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\Myexpenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Logiciels\Adobe\Creative Cloud Files\Programmation\C#\Personnel\MyExpenses\MyExpenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD2B558-3FF1-446E-8A75-344BC125410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96C101-2465-420E-9BE3-74ABCCB58B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t>pk</t>
   </si>
@@ -180,6 +179,18 @@
   </si>
   <si>
     <t>je suis un chemin accès</t>
+  </si>
+  <si>
+    <t>t_type_compte</t>
+  </si>
+  <si>
+    <t>t_historique</t>
+  </si>
+  <si>
+    <t>type_compte_fk</t>
+  </si>
+  <si>
+    <t>compte_fk</t>
   </si>
 </sst>
 </file>
@@ -195,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +255,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,11 +291,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,6 +377,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -327,6 +408,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
       <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
@@ -638,17 +720,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B6434-A4D7-4BAC-9CEC-2A04A709C66A}">
-  <dimension ref="B2:T16"/>
+  <dimension ref="B2:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -658,10 +743,10 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="13"/>
+      <c r="M2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -669,96 +754,100 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>5</v>
@@ -767,159 +856,213 @@
         <v>5</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L6" s="14" t="s">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L7" s="1" t="s">
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1" t="s">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L10" s="10" t="s">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="P14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="S14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="O10" s="12" t="s">
+      <c r="N18" s="10"/>
+      <c r="P18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L11" s="1" t="s">
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="1" t="s">
+    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="P20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="O14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="O14:P14"/>
+  <mergeCells count="9">
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -934,13 +1077,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
@@ -964,7 +1107,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1076,7 +1219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1105,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L6" s="14" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1259,7 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L8" s="1">
         <v>1</v>
       </c>
@@ -1162,7 +1305,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L10" s="10" t="s">
         <v>26</v>
       </c>
@@ -1172,7 +1315,7 @@
       </c>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
         <v>1</v>
       </c>
@@ -1186,7 +1329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L12" s="1">
         <v>2</v>
       </c>
@@ -1200,7 +1343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L14" s="9" t="s">
         <v>43</v>
       </c>
@@ -1210,7 +1353,7 @@
       </c>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L16" s="1">
         <v>1</v>
       </c>

--- a/Myexpenses/table.xlsx
+++ b/Myexpenses/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Logiciels\Adobe\Creative Cloud Files\Programmation\C#\Personnel\MyExpenses\MyExpenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\MyExpenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96C101-2465-420E-9BE3-74ABCCB58B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCCD3F2-CE87-4FD1-9FC5-8305279A1AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
   <si>
     <t>pk</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>compte_fk</t>
+  </si>
+  <si>
+    <t>t_abonement_fk</t>
+  </si>
+  <si>
+    <t>t_abonement</t>
+  </si>
+  <si>
+    <t>rasion</t>
+  </si>
+  <si>
+    <t>type_payement_fk</t>
+  </si>
+  <si>
+    <t>duree</t>
   </si>
 </sst>
 </file>
@@ -206,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABF1BC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +406,30 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,7 +442,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,6 +456,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFABF1BC"/>
       <color rgb="FFFF0066"/>
       <color rgb="FFFF00FF"/>
     </mruColors>
@@ -720,56 +769,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B6434-A4D7-4BAC-9CEC-2A04A709C66A}">
-  <dimension ref="B2:U20"/>
+  <dimension ref="B2:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="13"/>
+      <c r="N2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -778,44 +831,47 @@
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,10 +881,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -837,20 +893,20 @@
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="I4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>5</v>
@@ -859,210 +915,299 @@
         <v>5</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M6" s="14" t="s">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="N6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M7" s="1" t="s">
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="U7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="N8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M10" s="19" t="s">
+      <c r="U8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="N10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M11" s="1" t="s">
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="P11" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M12" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M14" s="9" t="s">
+      <c r="P12" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="N14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="P14" s="15" t="s">
+      <c r="O14" s="19"/>
+      <c r="Q14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="S14" s="17" t="s">
+      <c r="R14" s="25"/>
+      <c r="T14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="T14" s="17"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M15" s="1" t="s">
+      <c r="U14" s="26"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="N15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="T15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="U15" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M16" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="N16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="Q16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="16" t="s">
-        <v>4</v>
-      </c>
       <c r="T16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M18" s="10" t="s">
+    <row r="18" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="P18" s="12" t="s">
+      <c r="O18" s="20"/>
+      <c r="Q18" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M19" s="1" t="s">
+      <c r="R18" s="22"/>
+    </row>
+    <row r="19" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M20" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="20" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N22" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+    </row>
+    <row r="23" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="14:22" x14ac:dyDescent="0.3">
+      <c r="N24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="P18:Q18"/>
+  <mergeCells count="10">
+    <mergeCell ref="N22:V22"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1077,37 +1222,37 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="L2" s="11" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="L2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1219,7 +1364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1248,18 +1393,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L6" s="14" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L8" s="1">
         <v>1</v>
       </c>
@@ -1305,17 +1450,17 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L10" s="10" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="O10" s="12" t="s">
+      <c r="M10" s="20"/>
+      <c r="O10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L11" s="1">
         <v>1</v>
       </c>
@@ -1329,7 +1474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L12" s="1">
         <v>2</v>
       </c>
@@ -1343,17 +1488,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L14" s="9" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="O14" s="15" t="s">
+      <c r="M14" s="19"/>
+      <c r="O14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P14" s="25"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L16" s="1">
         <v>1</v>
       </c>

--- a/Myexpenses/table.xlsx
+++ b/Myexpenses/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\MyExpenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCCD3F2-CE87-4FD1-9FC5-8305279A1AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D990F7A-EE69-4D46-B1AE-35DAD591DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
   </bookViews>
@@ -772,7 +772,7 @@
   <dimension ref="B2:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Myexpenses/table.xlsx
+++ b/Myexpenses/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\Myexpenses\MyExpenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D990F7A-EE69-4D46-B1AE-35DAD591DEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CACB69D-F34A-46CA-8F9E-6C56C63F711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3C8728D4-4D3D-4C35-A3FE-37BAB581B7CE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
   <si>
     <t>pk</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>duree</t>
+  </si>
+  <si>
+    <t>t_virement</t>
+  </si>
+  <si>
+    <t>compte_depart</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>externe</t>
   </si>
 </sst>
 </file>
@@ -221,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFABF1BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6666FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,49 +421,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,6 +477,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6666FF"/>
       <color rgb="FFABF1BC"/>
       <color rgb="FFFF0066"/>
       <color rgb="FFFF00FF"/>
@@ -769,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B6434-A4D7-4BAC-9CEC-2A04A709C66A}">
-  <dimension ref="B2:V24"/>
+  <dimension ref="B2:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,37 +805,37 @@
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="13"/>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -840,7 +862,7 @@
       <c r="K3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="19" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -871,7 +893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -902,7 +924,7 @@
       <c r="K4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -933,20 +955,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="N6" s="24" t="s">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="N6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="N7" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="N8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1004,50 +1026,92 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="N10" s="27" t="s">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="N10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="S10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="N11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="N12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="N14" s="19" t="s">
+      <c r="P12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="N14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="19"/>
-      <c r="Q14" s="25" t="s">
+      <c r="O14" s="21"/>
+      <c r="Q14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="25"/>
-      <c r="T14" s="26" t="s">
+      <c r="R14" s="26"/>
+      <c r="T14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="U14" s="26"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="U14" s="27"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="N15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="N16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1088,14 +1152,14 @@
       </c>
     </row>
     <row r="18" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="20"/>
-      <c r="Q18" s="22" t="s">
+      <c r="O18" s="22"/>
+      <c r="Q18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="22"/>
+      <c r="R18" s="24"/>
     </row>
     <row r="19" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N19" s="1" t="s">
@@ -1126,17 +1190,17 @@
       </c>
     </row>
     <row r="22" spans="14:22" x14ac:dyDescent="0.3">
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
     </row>
     <row r="23" spans="14:22" x14ac:dyDescent="0.3">
       <c r="N23" s="1" t="s">
@@ -1197,17 +1261,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="N10:Q10"/>
     <mergeCell ref="N22:V22"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N2:V2"/>
     <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1219,7 +1284,7 @@
   <dimension ref="B2:T16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,28 +1294,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="L2" s="21" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1394,15 +1459,15 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L7" s="1" t="s">
@@ -1451,14 +1516,14 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="O10" s="22" t="s">
+      <c r="M10" s="22"/>
+      <c r="O10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L11" s="1">
@@ -1489,14 +1554,14 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="O14" s="25" t="s">
+      <c r="M14" s="21"/>
+      <c r="O14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="25"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L15" s="1" t="s">
